--- a/171-synthese-flux-ajouter-les-profils-utilisés-sur-les-diagrammes/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/171-synthese-flux-ajouter-les-profils-utilisés-sur-les-diagrammes/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T14:54:10+00:00</t>
+    <t>2024-09-27T07:41:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/171-synthese-flux-ajouter-les-profils-utilisés-sur-les-diagrammes/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/171-synthese-flux-ajouter-les-profils-utilisés-sur-les-diagrammes/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T07:41:43+00:00</t>
+    <t>2024-10-01T07:23:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/171-synthese-flux-ajouter-les-profils-utilisés-sur-les-diagrammes/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/171-synthese-flux-ajouter-les-profils-utilisés-sur-les-diagrammes/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T07:23:44+00:00</t>
+    <t>2024-10-01T12:32:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
